--- a/data/case1/20/V1_13.xlsx
+++ b/data/case1/20/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999663909378</v>
+        <v>0.9999999951016274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9990505987079803</v>
+        <v>0.99816716059578292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99751062052128048</v>
+        <v>0.9931268154656665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0022344349507724</v>
+        <v>0.99526853753596356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99387144142637918</v>
+        <v>0.98422827033905336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97707483531640649</v>
+        <v>0.95888588522022122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97527735469153876</v>
+        <v>0.9546559632490681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96816848218920448</v>
+        <v>0.94703778864448018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96283995261166777</v>
+        <v>0.93881957216551926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95843880637541168</v>
+        <v>0.93150669136096653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9579101083553534</v>
+        <v>0.93031847410810209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95716005373025315</v>
+        <v>0.92831413835141452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9550205114423076</v>
+        <v>0.92231282802322812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95472965707418145</v>
+        <v>0.92105408959461443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95581276506813539</v>
+        <v>0.920785443867561</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95779264161916977</v>
+        <v>0.92081063764040794</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95408501429245529</v>
+        <v>0.91710278336800555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.95297610246419484</v>
+        <v>0.91599386695282958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99799736180579601</v>
+        <v>0.99682260063629924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99088026532665729</v>
+        <v>0.98695000476887818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.989481759968456</v>
+        <v>0.9849749210804345</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98821725438331776</v>
+        <v>0.98371041306089002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.99047666907130205</v>
+        <v>0.98609258754985685</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97745666503466078</v>
+        <v>0.97307229493531378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97099980688637078</v>
+        <v>0.96661539250156414</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.97564751253862025</v>
+        <v>0.95635642599445247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.97390907117167169</v>
+        <v>0.95307848192909872</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9686958619878614</v>
+        <v>0.93992473292363821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96552703560198649</v>
+        <v>0.9272728578738354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96433644659095319</v>
+        <v>0.92162351241148555</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.95950590555207538</v>
+        <v>0.917528965922495</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.95782660952745258</v>
+        <v>0.91584965454111611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.95730658877330632</v>
+        <v>0.91532963928772593</v>
       </c>
     </row>
   </sheetData>
